--- a/gl4.buoy.RBRTemp.meta.xlsx
+++ b/gl4.buoy.RBRTemp.meta.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyloria/Documents/Niwot LTER 2017-2019/GL4 Sensor/Buoy Data/Buoy_QAQC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F682893-4813-6842-857F-B3F5BFDFEE1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7990B15A-4187-AA42-AE46-67269B8F9995}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="20760" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7840" yWindow="640" windowWidth="20760" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="gl4_buyRBRTemp.meta" sheetId="2" r:id="rId2"/>
+    <sheet name="gl4_buoyRBRTemp.meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="disciplines">metadata!$T$2:$T$13</definedName>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
   <si>
     <t>Methods:</t>
   </si>
@@ -500,9 +500,6 @@
     <t>Pieter.Johnson@colorado.edu</t>
   </si>
   <si>
-    <t>GL4.RBRTemp.data.csv</t>
-  </si>
-  <si>
     <t>30 minute timestamp data</t>
   </si>
   <si>
@@ -563,16 +560,10 @@
     <t>RBRsolo³ T are rated for ±0.002°C accuracy, &lt;0.00005°C resolution and were set to record in 30 minute intervals.</t>
   </si>
   <si>
-    <t>Sensors were downloaded using their interal software (ruskin).</t>
-  </si>
-  <si>
     <t>QA'QC protocol</t>
   </si>
   <si>
     <t xml:space="preserve">Individual sensor output was QA'Qced in R. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First date range was restricted around deployement record to exclude and measurements taken while the buoy was being manipulated. </t>
   </si>
   <si>
     <t>Then timestamps were checked to make sure there were no duplicates.</t>
@@ -584,9 +575,6 @@
     <t xml:space="preserve">Next we calculated mean temperature and the standard deviation of that mean. </t>
   </si>
   <si>
-    <t xml:space="preserve">We removed any values that were more than 3 deviations away from the mean for a given sensor. </t>
-  </si>
-  <si>
     <t>For the summer 2018 deployment, the only values that were removed corresponded with the July 10th adjustments.</t>
   </si>
   <si>
@@ -594,12 +582,6 @@
   </si>
   <si>
     <t>The upper most sensor (0.4m) was positioned under a surface float, as to protect it from direct sunlight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All RBR sensors were postioned vertically along the bouy with the probe side pointing downwards. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">See attatched diagram for details. </t>
   </si>
   <si>
     <t>deployment</t>
@@ -625,6 +607,27 @@
   <si>
     <t>measurement time in 30 minute intervals in mountain standard time</t>
   </si>
+  <si>
+    <t>gl4.RBRTemp.data.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then we created QA'QC thresholds by multiplying the mean temperature by 3 times the standard deviation and add or subtracting that value to the  mean to create an upper and lower QA'QC threshold. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then  we restricted the data set to include only observations that fell within that the upper and lower threshold. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All RBR sensors were positioned vertically along the buoy with the probe side pointing downwards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See attached diagram for details. </t>
+  </si>
+  <si>
+    <t>Sensors were downloaded using their internal software (ruskin).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First date range was restricted around deployment record to exclude and measurements taken while the buoy was being manipulated. </t>
+  </si>
 </sst>
 </file>
 
@@ -633,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -680,6 +683,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -881,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -940,11 +949,12 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1316,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1336,14 +1346,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1792,7 +1802,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1876,7 +1886,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2461,13 +2471,13 @@
         <v>34</v>
       </c>
       <c r="C40" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="E40" s="38" t="s">
         <v>135</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>136</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>92</v>
@@ -3052,13 +3062,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
@@ -3082,24 +3092,24 @@
         <v>2</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E64" s="29"/>
-      <c r="F64" s="44" t="s">
-        <v>169</v>
+      <c r="F64" s="42" t="s">
+        <v>163</v>
       </c>
-      <c r="G64" s="44" t="s">
+      <c r="G64" s="42" t="s">
         <v>56</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3121,7 +3131,7 @@
         <v>120</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>120</v>
@@ -3135,7 +3145,7 @@
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="29" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3154,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="40">
@@ -3171,7 +3181,7 @@
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="32" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3190,26 +3200,26 @@
         <v>5</v>
       </c>
       <c r="B67" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="D67" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="32" t="s">
-        <v>141</v>
-      </c>
       <c r="E67" s="29"/>
-      <c r="F67" s="44">
+      <c r="F67" s="42">
         <v>0.4</v>
       </c>
-      <c r="G67" s="44">
+      <c r="G67" s="42">
         <v>11.5</v>
       </c>
       <c r="H67" s="29">
         <v>0.25</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3228,13 +3238,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="29">
@@ -3247,7 +3257,7 @@
         <v>2E-3</v>
       </c>
       <c r="I68" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -23815,10 +23825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H982"/>
+  <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23912,7 +23922,7 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -23924,7 +23934,7 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -23936,7 +23946,7 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -23948,7 +23958,7 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -23980,7 +23990,7 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -23992,7 +24002,7 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -24004,7 +24014,7 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -24016,7 +24026,7 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -24048,7 +24058,7 @@
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -24060,7 +24070,7 @@
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -24072,7 +24082,7 @@
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="33" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -24084,7 +24094,7 @@
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -24096,7 +24106,7 @@
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -24108,7 +24118,7 @@
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -24119,8 +24129,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
-        <v>160</v>
+      <c r="A26" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -24131,8 +24141,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33" t="s">
-        <v>161</v>
+      <c r="A27" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -24144,7 +24154,7 @@
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -24155,7 +24165,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
+      <c r="A29" s="33" t="s">
+        <v>158</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -24165,9 +24177,7 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -24177,8 +24187,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
-        <v>163</v>
+      <c r="A31" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -24190,7 +24200,7 @@
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -24201,8 +24211,8 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
-        <v>165</v>
+      <c r="A33" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -24213,7 +24223,9 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
+      <c r="A34" s="33" t="s">
+        <v>172</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -24233,7 +24245,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -24243,7 +24255,7 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -24283,7 +24295,7 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -24333,7 +24345,7 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -33692,15 +33704,11 @@
       <c r="G981" s="2"/>
       <c r="H981" s="2"/>
     </row>
-    <row r="982" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
+    </row>
+    <row r="983" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A983" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
